--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/40_İstanbul_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/40_İstanbul_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D76CE707-3105-4227-8885-EEBBAE7F5418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D96C50D-9328-4096-8EA0-D032D76E7F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1722FD5-6D35-4728-9C72-2C490119D586}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7A32C64-72EA-4AE7-9BF7-E68099DE0D44}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{9638C0DE-820D-4AB2-BD22-A701D10849DA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{12863D65-0890-4E32-B4A5-A8E8F4F7C14E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{F78D1560-7A71-4427-B3E7-87E52DF3269B}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{DEC3D3E0-320E-417E-82F9-00D801BEA327}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{E70F6653-3AAE-4867-87A3-AD60F0D210F6}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{2E53ACF0-2AEB-4FF3-A023-275BAFEE78D0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{FCA356AA-FA94-483E-B59A-5EA2C5740C42}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{4BD86684-DD13-4369-8EEC-12CBAD4F6CE9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E375DE-F62A-487C-993D-5DE10FAADDF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485F79B4-07E8-4F6C-9D6D-B5543390F7B6}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -2528,18 +2528,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CF23465A-BC6C-41C1-897B-775C4CC672D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{215D65F9-8D40-413B-ABB1-F92097CE1C37}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9EC1BD94-257B-4FE6-9DFB-F0CAB9034946}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1B705CD1-A880-40F8-B44A-A396DF1A0C2A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D29CBE51-4833-497B-AFCB-2548B644FE60}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3363C764-6A6D-49BA-B5D0-4F9DF1A88AC5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{61B74DE0-469B-4132-BC0E-08126773EF65}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ED5DF11A-8C70-4150-B88E-BE2DDC2EDDF4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A086E6D4-71F4-4FFE-A03B-56D02FC85F6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D9C90815-5D0D-4AE4-A90F-87FA7E6B1110}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FE2A2C68-DBB5-41B2-8C42-D65B3634757A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{94D0E21E-768F-4A25-8BEC-A29DCFCE17EA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E4A41F5E-B866-4710-A6C9-5AE47DCF2CA8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2B13306B-13B2-4AE0-9A7F-E81B4B65E9DC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{09BE607C-39E7-49CC-B6B5-2842F7C6FC68}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BE5FA7DC-F46D-413A-93A7-728056A48AF2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{21B6E141-D0B1-40D0-9411-F3637BB85556}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7EFA2396-565D-4A16-B41B-DCF79AD8CF5D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B0BB8845-2352-4D76-B5C6-E168336E1F6C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{505721F3-C70E-4D48-9724-BE89659FD36B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{272B378D-BFAF-4F8A-A93E-ECDAD1212C10}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FD99C2B4-645F-49F5-83B1-CADBFE40FF33}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7AE8CE84-1EE0-4C43-800A-D0471C2383BE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{115E4F85-DE5D-4F8C-9AF6-FFC9E9DD66F3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2552,7 +2552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA6150D-518F-4CF4-8985-5C9A6F42D184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522C180B-604E-430D-A42C-53661CD7B3B1}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -3822,18 +3822,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7601D241-7FD7-4083-9F51-372D6FE9AF9A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B9FD12C8-6B43-48AF-AE3E-9C3ABF7A48AE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FACAF227-6768-4B57-9B83-5B95695DEFBE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AF17F444-5198-4933-B3ED-4354A5BD831B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4A1FEC2E-7481-430B-A67F-CFDE166D272F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{594B1186-B41E-458A-B949-352BF2AE7846}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{263BAFA1-8B9A-4120-9BBB-EE5EDDD1D899}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{15AEE2D3-B87C-48E5-A80A-723F30D6B9AF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{978E153B-4E2C-4E71-94E4-C1379E3835C0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0630CF85-6882-4C9A-835F-543C020B05EC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6EB65EFE-71D7-40A0-8DEE-2AFD082AD7D1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6B39065F-A399-4A9F-99EC-18E833B4C4DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4D0A5F68-68DD-4546-9319-FE4A065AC356}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CBAFF9AC-49C8-4AC6-8848-9A3A0A3D386C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5E728364-A529-4101-B26E-B6F368939D00}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{85AFC493-A0B1-42ED-99EE-A8C75C2794C7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7BADCF65-0CB2-4F1E-885A-F103B04A50CF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D8E11BF8-204A-4171-A37F-2BDDD8EB1816}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0DBFEF5D-E083-4E3D-989E-97943230CF5A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D29E14CD-BB4D-4100-AFE2-2099B1814395}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8BF4A30F-4B13-4921-9BD0-4DD7C6643B16}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{11F87C98-7BC4-42FF-8D25-157D648AF530}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FEFD8A52-32C1-4973-BAB7-71454C9FE45B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D05EB135-4FB6-43CB-8509-F873AAD4983C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3846,7 +3846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0E9BEE-8B20-4BF6-9ACB-2BE630A3757F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719DB19E-1F53-4F98-8B02-9F6EAB794164}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -5116,18 +5116,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9A83B095-79D6-43EE-80CE-EB8763861685}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{59933EAD-9EF3-4886-87C1-27B6E4079AC1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2CCF0F1B-926A-4A4B-8B8B-B388A944F36F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7347CEE5-F5D3-4A40-B77F-DAF441607170}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2BA52E7E-4D0F-418C-8347-79A2964767F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B46B6F9B-613A-4EED-8E71-2D11153CF640}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DF09B98B-592E-460A-A6AB-23140C49066F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2220E2BB-DF8A-456C-BB11-50CBC6E3A6CA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3E583183-F0E8-4671-98E6-3C7077F69449}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B1296326-6E6E-4EF8-AFD5-424F5BC3DA52}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{785A814C-2218-449C-BDF3-80A3F4309953}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{60D9E08F-36CD-458F-9F63-666AB18AB8B6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BBB65924-043B-4CF4-8AED-4A9A1B0750CA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E37179D9-DB81-4F3E-B4AA-2466E61FA675}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0EB53C74-B511-45FD-B526-921F9C4810B6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E6014963-8ECF-42E0-8E1E-5E717A5E640E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F4371AF5-7EB0-4874-BAF6-6E8B92B3F5E5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2C98DA1A-0BAE-4864-B538-6EF701600005}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{478A9A46-FF25-410C-89FD-C1624ABCA461}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5E9CC5F1-143F-4F13-8296-6395171759E0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D379659E-08A5-4452-8A6E-34C93EFC84AA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B4331F93-883A-4B4E-810D-A0EDE06CAB28}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CF46DBC3-34D1-4680-A70A-C7DD22DC0D2C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5F7CCF30-3AAD-4E70-9289-B8009EF79915}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5140,7 +5140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C536-BF70-4440-9C99-FE23DCC283D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBDFCB3-1F05-4016-9B23-88883E5DA010}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -6406,18 +6406,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4E3CE285-C70C-4385-8FAE-241BBACC4221}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{17169413-6549-47AA-8AE6-468E86F96E9E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{95DDBAF2-3ABC-4CD8-94D7-2450914E0C93}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{79CB0D7A-E18C-4258-955F-B90F41668AC0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EF59426A-37F7-4C3E-95B9-FA2D78A47A0C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BF5A8BBF-1C56-4415-9F46-55D19C76B67C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{133E1D00-2B7D-431E-AEF9-968926888855}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{96487D4C-60B9-4787-806C-00065674F445}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3687AA38-CFAA-455E-A19A-DB2DC5D2954E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C0D62C70-669F-496E-B360-B861B7621E56}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1FAAE434-E889-4397-AF12-FA039BD9F45B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DDE59E4C-2357-4902-9FBF-67A03889C583}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BC9DA9C0-BE61-4561-94B7-5880083F8F16}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B32E6D91-48AE-4EA9-B2DA-8A246B268B4C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A3FB4EC4-BD7E-44D7-AF53-DC15E382D468}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{257E76C0-A78A-49FA-AA1C-FC779D9B1F74}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6EE5A6A8-D837-49C8-9489-01A988E090D5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CA004EBD-7C63-49E4-80A7-567046967735}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5B012435-0DFB-41F3-AEEB-03BC7868E202}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9E09B0C7-46FF-4243-93B8-CCBB0E0D512F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F3AAF222-7A37-4CD2-A552-DDE91F8DAD34}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A0B3A5F6-EFF3-489E-A91F-7BC75DF36D3F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E1705C9A-731C-4728-AF87-A7F695E7C796}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{493401A7-0107-4EFF-9457-546314C682B6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6430,7 +6430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2761371-D0B8-4882-BA55-B12FF9A114EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A77BBA-E0C7-40C5-BCC6-968D426D0EBE}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -7722,18 +7722,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CA42C03F-DF34-4707-A3C5-AA3F8776AA30}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EFACA169-BE91-48AF-99BE-BD06203320F1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CC5F6665-3E53-4654-AAC6-43A60B67DA79}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{356C4672-233B-4555-917B-98499B148E8F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C311393D-C9E0-4577-9BCD-0AEF4C4537D3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7BABECC1-9F87-45FF-B7A4-0A3761811086}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A5BD43E0-A439-4EDE-889D-475650D9B850}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9186FD82-AFDE-456A-BABE-F2EE9108D53A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2F940101-856F-4142-A8B3-CBD7D9591614}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6F50E34F-E35D-4AC1-B91D-EED533E684ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{84F38036-22BE-480D-A874-C4041D39D687}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BC650F89-29AB-4F33-8414-029B0DE19613}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{450F540D-5725-4582-B7BD-1C301F12ADC0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3C20E6A6-8431-4BDF-B563-42BD57DE542E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3E33684E-A82F-49E2-87AD-774695F8C661}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3E69243D-DA71-4EC8-B5EF-250AF9073990}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9580B1EF-BB01-4BE8-9192-79358D98F8EB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EBFE1246-6D15-4ED9-A6BE-42753B03D21B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D1B87383-B149-465A-831C-C42B080542F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{74390368-E2FE-4565-B939-715E2134D8DD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{332C4303-D475-4673-98CD-BC8E07E5A029}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{68AD3EAB-254B-4E39-BDBF-23F5E9ACEB60}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D0FEB682-1018-4F9E-9BD1-3BC1E1009DDD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6DE8E90F-8177-42C2-925D-8A6BF39EC051}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7746,7 +7746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F304C959-3091-46CB-9C6F-8878873ED786}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9B4FAE-CF13-45B6-B8FA-322821323AA2}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -9030,18 +9030,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1A88B2B9-298D-4B64-A76D-48E50D7327AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C3E4BF11-AFC6-47FB-A6F6-73D861BE3B02}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2A7A502A-E425-4851-BCE8-3CDE4E0177B1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5C953986-F13D-4B11-A359-0530B73EA4BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F5FDA56F-E6DF-42AD-882A-2A6C44A68225}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4C107F4A-B266-4F6D-988C-D065E43CB728}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{951EB862-D751-46A1-B8A3-BE5B88646CEF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4AFE96B4-2658-40F6-9835-F8BA4B62C57B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2D46AF3E-5AFB-4B3C-8BD6-C0D9783DD60A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AA60B07E-9018-4FA5-A6A1-59F9A6AD52A0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CE10613A-CCBD-4C1D-816B-81150C4310E1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2D82814D-BEE7-4A97-A6E8-5903DC0D69C8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{07DAAD3B-9F92-4ABC-B193-FEBC25713B8D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B5C25483-FFE5-4DB2-85AE-394C36E2FD17}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B56EA250-4B40-43BD-BE61-B27A38A7294C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2CFFCF40-19D5-44C9-B21B-C15895D9C9F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{44A29310-C0DB-4592-B2FD-1B4DDAB32195}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D1FFB76B-113F-49E9-AF3B-4DE94189E9F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8E9D2E08-D892-45A2-A239-BEFF3377D186}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{56354F31-904F-4435-A890-C86DDA98923A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9454CC40-A7B6-45B4-9004-04B7CC1D8DE9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5AB70B13-7BED-4B3B-B6B8-A7DE01050D8D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{642ACE03-7225-45FB-86CB-25BFD70241B0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{14156966-6DC0-4A39-BB0D-98717C29F2D0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9054,7 +9054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B8F658-23BF-4717-8C49-B17D4820C927}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C7C884-6287-4B7C-9942-85C3AB5A2DB7}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -10338,18 +10338,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7954E195-0EA5-407E-8E5C-8D2E79B26467}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FA4E3652-C39D-4786-9FFF-3A768C80B5C9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7D850FF5-8942-4A38-8C0F-7DCEF5E7B70E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{133383D6-936F-4260-BBA3-3D674C3A6299}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A43F09F9-2EA4-4241-872E-E9143702841F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8E53940F-BE6B-41E9-8F63-DDD328B14383}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CACC7215-0B58-4D56-AA6A-5D2BA2CEEBC8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F47E89EA-0AEB-4DCA-A1FF-413B4D6D0096}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{79AA4C63-29E8-427B-90AE-60FAC90DD519}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F7A98BCF-C4CA-439A-8B99-A90485F7B296}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{93D5AFD2-766F-4935-B586-90C01A3B892E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EC17569B-E588-417B-96F2-FE3BFE95F9AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{91E22255-1B9F-4E7D-A8ED-B93A0FDB8151}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A01B377E-4237-4E8A-ACC0-5FDA3BC052D4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9D1AC493-43A5-4531-A027-21C1ABCAA22F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{29A652EF-62F1-4833-80F3-EA92E5D515BE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BED0E9DD-F23E-4C82-B5F8-042430A9554C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B7938B3A-86FF-4529-A5FE-A4CA9DFFCC75}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{47056D25-41DE-4429-A0EB-42C00171EA27}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3839C7F0-957D-4943-88CE-71B6B0768C89}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{134D0393-EE02-4138-8469-743C880BD0DB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C2847C65-C5BD-4E8C-A114-D22A4E34FAE7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AD570F6D-0A78-4CA7-87EB-45D3F4E906D9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{83FA6C20-FD70-46AB-A11C-5E3247DCACA1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10362,7 +10362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7192338-7A3C-42FC-95B2-1FB277600817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A04FF-9A0F-434B-8045-F03F919046DA}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -11640,18 +11640,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EBCC9D12-C1FA-4D9D-A957-9E9C2BF6FA4F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{774B8830-A7E6-4909-BDCA-A05214AA074B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9072ABC5-D532-4794-AEE5-408B224A4544}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3DFFD38C-EA6F-4B75-82F7-72186C27EE4A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3F68CDCC-5274-47F5-B84A-A9BD1C84A40E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{80CAAC45-8229-4CC1-81AA-76F2193CB8F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4EF2E898-B6B1-447A-9499-540FB95C9859}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{87FE1AE9-1206-44BB-A27F-32ACC73E0DE7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AF24E190-E1E5-400C-A2E8-B9746311B277}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{70E40EB4-5315-4D98-9353-6590E8A15570}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{06FEF9DE-1B84-4C1C-B8A3-AFAB597D1317}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8BF374D8-DCEB-4530-8F20-E59494A02D57}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0197A5DA-34A7-4F3E-AA66-1609D8627CC9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5CFBB36D-4004-42D0-AB37-734D0FB6538F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{443F8563-E76A-4691-B31C-5247F90540BC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DAEAC4DD-0355-4CA6-BF1B-E2F434B78B2B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{814630E1-7454-4DB0-8502-B7C24097E198}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5743F9BD-192F-47D0-BE53-B290A728F666}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3105D776-1AE7-450E-9A54-63947A15C11B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5E9255A9-3B37-4A97-B3B1-603681DD57A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E0CAFD57-8F14-4EAD-9B39-B4B419B888A6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E64DB801-B969-420F-A320-630317B91586}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{ACC86C2B-BFEE-4D95-B051-23E0EC9E9CE4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D105A3EC-7D71-4DEC-B6B2-01C0710F179E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11664,7 +11664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA5723F-5201-400B-98ED-EC52146787C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021716CD-310B-4920-B318-95DB98AC3C08}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -12942,18 +12942,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{69C69DA2-2BDB-40A3-B76A-69E93A77130D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6C255986-2404-44BF-ABA1-67724B83F140}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{50F52AD5-20D2-4938-B1BC-98F0643B79C1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DF33284E-6DD9-4E65-B473-B3883DCE8E95}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E3AAAF75-02D9-407B-836D-A287A457C7CC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{48AEAD49-40AC-4D29-A294-5C8A3A75CFDB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BB7DE6BB-7A07-48E5-B5AB-F1B794CFD2C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CCA82057-76FC-43DC-BB05-ECA320C7576E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F75B5FE5-F3EA-411E-B8C9-423E451B3BFE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{750F0C97-D399-4B5D-94D7-ECDF65254277}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{044AD1D7-22CB-4D0D-8E35-199C4C86FBDF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A6196E75-21F1-4FC9-8ECC-DDC61723B135}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7BB85B44-E280-4E22-8A40-8CCB6E04F86E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CFAE13D3-B2BF-42EA-9D26-A4154184C027}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{063090B3-1C00-45DD-9BB0-AD7F1CC70A4F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1CFED48D-25E7-448F-B250-9026DBE919C8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FFAF0A5A-6EEE-4457-980F-C4E9317FA47D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{060A0327-254F-432B-A85C-4D5B968C718C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{22F1F9BC-8732-421D-9E5C-1E32F9E90E99}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{41100C13-0362-4006-AA73-88A1BFEDAD55}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{60A3D18F-647B-40BD-A787-412596A15E9A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{91F07C97-01D7-4BE9-AF3E-C76A5808CA40}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5B7E7392-12EA-4241-B564-EE82F5782D51}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F16225E1-DBC4-432E-804D-48B8C3C9688C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12966,7 +12966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CFA7BF-6B6D-40EE-AD8F-54E9D842FFE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3387C920-8F52-43E5-A6D0-CDB364C7188F}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -14244,18 +14244,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0DC9BB6A-4662-4391-B62E-7A7FA3F78329}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CDC3D3D1-2626-47CA-9476-C6A1F23567B9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C98A7817-1821-4673-AD94-95A51DD59B2F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2BB00552-13B9-4560-AAFF-5B7F340AC637}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7B8D4DE0-A9DD-4F19-9D61-E2E2FDB9A8C4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F8C4C27C-E72A-40EB-9532-063C0DE3C60C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F9E6CF74-35CB-45BB-8160-B4EA9595A64E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B728523C-F9CE-4F57-8B14-F18A9AC69B8D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{82942F2F-9626-49EA-B9BF-F7777E8AE1BF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{16248101-221D-49E5-B2DE-FC7F4AE01BBD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7323E169-195A-4463-98EE-F7546344A706}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A987E732-F2DE-4778-9852-657A7D2AB934}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E97C634B-65BD-4BCB-83D7-A0FFC35A146E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0E811252-B96E-4117-9F01-5AFD401F141C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{17D2C022-0DBC-4D2C-B13F-B4748F3419CC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{719ACFB4-E951-4EAC-A6EB-A0DC53C04AEF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{174C3CB4-2333-42DC-980B-0AB8C73FB8D3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FB35BF32-6FD3-4924-B0AB-544880283C6D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3D87B17A-1F72-491F-9C5A-5366E68082AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{93919F4D-7D4E-4CDE-B5CC-5253ECD91D25}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FA6AE7FE-F7BF-4719-84F6-1CEB2F0509BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D424B6FA-0A04-407E-B6A5-08E106A94681}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{34E222F7-E78A-4CBF-89D9-D8B72347EA64}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E5303E09-DCB4-4471-AB98-55C6242D59AA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14268,7 +14268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD59163-87F6-45E5-B215-C4E5647058E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04ED60A7-F16E-425D-908C-F6AB3F417B71}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -15542,18 +15542,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{83E1AB0C-2AEC-483A-952D-A0624FA720B7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6E512641-2D2A-4F89-A966-E27AEE54F76F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{499E4E81-59E9-42F9-BA78-1F864FF815FD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7438FD0E-22B7-4D06-BD9B-AF9FDEB392A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{53BF2A16-CA0D-4018-B259-D7C4B255D703}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CFC2BB04-563B-46AC-AD08-225DAD325E8D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DFC06B88-4CEA-40AD-833E-305326D9A376}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A1BB6B98-8E78-4843-B313-CB04E5FA0501}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E5D1B793-E701-454B-9EC5-965F1F4C26E7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EA922BE8-DE78-4777-8083-29C2E4D8AAF2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B1746BAD-4D93-4F20-8F8F-564F76B51085}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0018C35E-278A-473E-ACAB-0E7A194B4F70}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C9031B62-552C-4E9D-BA1E-8BAB66005C23}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C8BD0F69-DF26-46E9-9268-7795E0BA7BBC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F382F8F8-91BD-4BC2-A772-482250AB4633}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F9A67D2C-536C-4DFE-8ABE-9B49A0C96043}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4446E635-F04D-4235-A9EF-9968532D497E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8A535E3D-3BC6-48C9-93D2-B91E9671B17F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{40556889-28F3-4AC6-A371-9917743A8788}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{953F5C0E-2F7A-43A8-A970-2F32BE071198}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{97FF9118-F9D5-4F58-8469-6A8EB65AF8BE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F45F5866-67AC-48ED-8647-04818AA25E5C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7D047F33-2449-45A5-BC26-813C7E210FDA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0506E7E7-C34A-4755-9E9D-7F143F51C512}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15566,7 +15566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5A17A2-8A85-464F-A646-11C89E033BF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0553C89-73A9-4569-9442-32063E1FCD62}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -16836,18 +16836,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{622CBF9A-4B51-4DCE-B62D-018EECC1DD8A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5220F7A6-E824-40D0-8952-E0DBA87C0FD4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3D750366-391C-46F7-A0BF-C3F815CE7ED6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1BD9D583-1028-4A95-9E56-7C979DEBF8AB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6DD757BC-0CD9-4408-9A79-CEFAFD930890}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6FB82D24-9F8E-4D12-9B06-F55D5781ABED}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2893C6F0-50C5-4536-B5C3-CFC7FA121340}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{90FCBD70-A6D5-474C-ADCB-44DCFC2A886D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EB274920-5B94-4B2F-A678-8B477F6B9086}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D2CA55B1-2AF1-4ED2-AC6A-3046819D92EB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AC1B81E6-3566-4CB1-A0D9-916664CC3DCA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{48657C71-0A47-4FC5-9CD1-E1351BDFAC30}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{290A9B35-D0DC-441C-BECB-2C9BBAAEBCA8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{ADE82D8D-EB8E-4277-B827-998103A73BDC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5DD4415C-5468-49D7-9E21-3E3BE2022010}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{96C1CFC0-5BB8-462C-B146-C80832414EAB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0CC2BA9F-09D2-420B-B78F-6E2A90D5B63D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9586506C-F16A-405D-920E-9F34503EFE57}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{41586CB9-F481-4826-893E-CC0B2362F013}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{885F3A27-899C-4B5C-8F0A-4160A0F0197F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{51AF4D40-8C91-441C-AF83-6CDA0E6C7C7D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8FC0B240-9EB9-4B3C-8AA6-4499558D334C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{48AFF445-25D1-4768-8A8A-9B9F6FB78702}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2EE76476-AB0F-4624-8E41-47BE1230A25C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
